--- a/ExcellDocs/ContentData.xlsx
+++ b/ExcellDocs/ContentData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goura\eclipse-workspace\DesktopFramework\ExcellDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goura\git\repository\DesktopAutomationFramework\ExcellDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7536BCD9-98C9-473C-B5ED-F57C88D60F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EC66B1-05CA-40CF-8013-0272C952BFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="79">
   <si>
     <t>Country</t>
   </si>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,201 +900,6 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExcellDocs/ContentData.xlsx
+++ b/ExcellDocs/ContentData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goura\git\repository\DesktopAutomationFramework\ExcellDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goura\git\DesktopAutomationFramework\ExcellDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EC66B1-05CA-40CF-8013-0272C952BFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049B2B0-DB68-493D-9AF2-86EB718E5A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="79">
   <si>
     <t>Country</t>
   </si>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,6 +900,201 @@
         <v>69</v>
       </c>
     </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1397,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F018DD-8487-4D04-9F04-4A154E72379A}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ExcellDocs/ContentData.xlsx
+++ b/ExcellDocs/ContentData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goura\git\DesktopAutomationFramework\ExcellDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049B2B0-DB68-493D-9AF2-86EB718E5A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E94E7-3106-4DCD-8A55-05A6C2C6423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="79">
   <si>
     <t>Country</t>
   </si>
@@ -636,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD11"/>
@@ -900,201 +900,6 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExcellDocs/ContentData.xlsx
+++ b/ExcellDocs/ContentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goura\git\DesktopAutomationFramework\ExcellDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E94E7-3106-4DCD-8A55-05A6C2C6423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2D82F-E951-434B-B498-46056F16CCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="79">
   <si>
     <t>Country</t>
   </si>
@@ -636,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD11"/>
@@ -900,6 +900,201 @@
         <v>69</v>
       </c>
     </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExcellDocs/ContentData.xlsx
+++ b/ExcellDocs/ContentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goura\git\DesktopAutomationFramework\ExcellDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2D82F-E951-434B-B498-46056F16CCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D2748D-7394-4F72-AE7A-2E56AA80EAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="79">
   <si>
     <t>Country</t>
   </si>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,279 +822,6 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExcellDocs/ContentData.xlsx
+++ b/ExcellDocs/ContentData.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goura\git\DesktopAutomationFramework\ExcellDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D2748D-7394-4F72-AE7A-2E56AA80EAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB38C7B7-C0A2-449A-A988-00786B6315A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,87 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="53">
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Minsk</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Brussels</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Copenhagen</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Dublin</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Jerusalem</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Rome</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Bucharest</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Moscow</t>
   </si>
   <si>
     <t>FirstName</t>
@@ -292,18 +213,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -339,21 +254,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,49 +569,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -711,37 +620,37 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2">
         <v>23808</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -750,37 +659,37 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2">
         <v>23808</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -789,37 +698,232 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="N7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="N8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>68</v>
+      <c r="N9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -829,493 +933,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB0164-D1B6-465E-BD9E-747A9627FE26}">
-  <dimension ref="A6:R25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:R23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2300000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2">
-        <v>7400000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="G11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2">
-        <v>430000</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="2">
-        <v>800000</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="2">
-        <v>630000</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="2">
-        <v>3200000</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" s="2">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="2">
-        <v>6900000</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="2">
-        <v>2300000</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="2">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2">
-        <v>800000</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2">
-        <v>5400000</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="2">
-        <v>7400000</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="2">
-        <v>2300000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3200000</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="2">
-        <v>2200000</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="2">
-        <v>7400000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2300000</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="2">
-        <v>6400000</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="2">
-        <v>430000</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="2">
-        <v>2200000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7400000</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="2">
-        <v>630000</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="2">
-        <v>430000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2200000</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="2">
-        <v>6900000</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R19" s="2">
-        <v>630000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <v>430000</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="2">
-        <v>5400000</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="2">
-        <v>6900000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2">
-        <v>630000</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" s="2">
-        <v>5400000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2">
-        <v>6900000</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="2">
-        <v>6400000</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="2">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2">
-        <v>5400000</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R23" s="2">
-        <v>6400000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="36" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2">
-        <v>6400000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F018DD-8487-4D04-9F04-4A154E72379A}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -1327,49 +944,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1378,37 +995,37 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2">
         <v>23808</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1417,37 +1034,37 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2">
         <v>23808</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1456,37 +1073,37 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2">
         <v>23808</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1495,37 +1112,37 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2">
         <v>23808</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1534,37 +1151,37 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2">
         <v>23808</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1573,37 +1190,37 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1612,37 +1229,37 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1651,37 +1268,37 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J9" s="2">
         <v>23808</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1690,37 +1307,37 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J10" s="2">
         <v>23808</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1729,37 +1346,37 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2">
         <v>23808</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1768,37 +1385,37 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1807,37 +1424,37 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J13" s="2">
         <v>23808</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1846,37 +1463,37 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
-        <v>65</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1885,37 +1502,37 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2">
+        <v>23808</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="2">
-        <v>23808</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" t="s">
-        <v>66</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1924,37 +1541,37 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J16" s="2">
         <v>23808</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
         <v>41</v>
       </c>
-      <c r="M16" t="s">
-        <v>67</v>
-      </c>
       <c r="N16" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
